--- a/mrn_input.xlsx
+++ b/mrn_input.xlsx
@@ -1,44 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FFCR_Project\Banner\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FE8E43-9F52-4D09-AB17-EDA2DE0C8509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>MRN</t>
+    <t>MM0000333560</t>
   </si>
   <si>
-    <t>1234560</t>
+    <t>MM0000699461</t>
   </si>
   <si>
-    <t>1234561</t>
+    <t>MRN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -54,7 +52,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -62,43 +60,33 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -136,7 +124,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -170,6 +158,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -204,9 +193,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -379,26 +369,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/mrn_input.xlsx
+++ b/mrn_input.xlsx
@@ -1,42 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FFCR_Project\Banner\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FE8E43-9F52-4D09-AB17-EDA2DE0C8509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
+    <t>MRN</t>
+  </si>
+  <si>
     <t>MM0000333560</t>
   </si>
   <si>
     <t>MM0000699461</t>
   </si>
-  <si>
-    <t>MRN</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -52,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -60,33 +62,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -124,7 +136,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -158,7 +170,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -193,10 +204,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -369,31 +379,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="44" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
